--- a/doc/服务接口设计文档0328.xlsx
+++ b/doc/服务接口设计文档0328.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17766"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17830"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" tabRatio="1000"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" tabRatio="1000" firstSheet="1" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="上传用户头像#" sheetId="33" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="731" uniqueCount="225">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="731" uniqueCount="226">
   <si>
     <t>Request</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -975,6 +975,10 @@
 201找不到该用户
 202没有修改用户资料的权限
 203文件图片上传失败</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>接口：</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1184,6 +1188,9 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1246,9 +1253,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1532,7 +1536,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
@@ -1544,28 +1548,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="22" t="s">
         <v>220</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="22" t="s">
+      <c r="A2" s="23" t="s">
         <v>221</v>
       </c>
-      <c r="B2" s="22"/>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
+      <c r="B2" s="23"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="23" t="s">
+      <c r="A3" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="23"/>
-      <c r="C3" s="23"/>
-      <c r="D3" s="23"/>
+      <c r="B3" s="24"/>
+      <c r="C3" s="24"/>
+      <c r="D3" s="24"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
@@ -1598,16 +1602,16 @@
       <c r="B6" s="3" t="s">
         <v>223</v>
       </c>
-      <c r="C6" s="42"/>
+      <c r="C6" s="21"/>
       <c r="D6" s="3"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="23" t="s">
+      <c r="A7" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="B7" s="23"/>
-      <c r="C7" s="23"/>
-      <c r="D7" s="23"/>
+      <c r="B7" s="24"/>
+      <c r="C7" s="24"/>
+      <c r="D7" s="24"/>
     </row>
     <row r="8" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
@@ -1652,8 +1656,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1663,28 +1667,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="22" t="s">
         <v>50</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" s="22"/>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
+      <c r="A2" s="23" t="s">
+        <v>225</v>
+      </c>
+      <c r="B2" s="23"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="23" t="s">
+      <c r="A3" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="23"/>
-      <c r="C3" s="23"/>
-      <c r="D3" s="23"/>
+      <c r="B3" s="24"/>
+      <c r="C3" s="24"/>
+      <c r="D3" s="24"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
@@ -1723,12 +1727,12 @@
       <c r="D6" s="1"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="23" t="s">
+      <c r="A7" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="B7" s="23"/>
-      <c r="C7" s="23"/>
-      <c r="D7" s="23"/>
+      <c r="B7" s="24"/>
+      <c r="C7" s="24"/>
+      <c r="D7" s="24"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
@@ -1784,28 +1788,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="22" t="s">
         <v>49</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="22" t="s">
+      <c r="A2" s="23" t="s">
         <v>123</v>
       </c>
-      <c r="B2" s="22"/>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
+      <c r="B2" s="23"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" s="23" t="s">
+      <c r="A3" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="23"/>
-      <c r="C3" s="23"/>
-      <c r="D3" s="23"/>
+      <c r="B3" s="24"/>
+      <c r="C3" s="24"/>
+      <c r="D3" s="24"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
@@ -1831,7 +1835,7 @@
       <c r="C5" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="D5" s="25" t="s">
+      <c r="D5" s="26" t="s">
         <v>120</v>
       </c>
     </row>
@@ -1845,16 +1849,16 @@
       <c r="C6" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D6" s="26"/>
+      <c r="D6" s="27"/>
       <c r="F6" s="9"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7" s="23" t="s">
+      <c r="A7" s="24" t="s">
         <v>119</v>
       </c>
-      <c r="B7" s="23"/>
-      <c r="C7" s="23"/>
-      <c r="D7" s="23"/>
+      <c r="B7" s="24"/>
+      <c r="C7" s="24"/>
+      <c r="D7" s="24"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
@@ -1914,28 +1918,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="22" t="s">
         <v>49</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="22" t="s">
+      <c r="A2" s="23" t="s">
         <v>199</v>
       </c>
-      <c r="B2" s="22"/>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
+      <c r="B2" s="23"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" s="23" t="s">
+      <c r="A3" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="23"/>
-      <c r="C3" s="23"/>
-      <c r="D3" s="23"/>
+      <c r="B3" s="24"/>
+      <c r="C3" s="24"/>
+      <c r="D3" s="24"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
@@ -1961,7 +1965,7 @@
       <c r="C5" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="D5" s="25" t="s">
+      <c r="D5" s="26" t="s">
         <v>120</v>
       </c>
     </row>
@@ -1975,7 +1979,7 @@
       <c r="C6" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D6" s="26"/>
+      <c r="D6" s="27"/>
       <c r="F6" s="9"/>
     </row>
     <row r="7" spans="1:6" ht="57" x14ac:dyDescent="0.2">
@@ -1991,12 +1995,12 @@
       <c r="D7" s="6"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" s="23" t="s">
+      <c r="A8" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="B8" s="23"/>
-      <c r="C8" s="23"/>
-      <c r="D8" s="23"/>
+      <c r="B8" s="24"/>
+      <c r="C8" s="24"/>
+      <c r="D8" s="24"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
@@ -2069,28 +2073,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="28" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2" s="28" t="s">
+      <c r="A2" s="29" t="s">
         <v>124</v>
       </c>
-      <c r="B2" s="28"/>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
+      <c r="B2" s="29"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3" s="29" t="s">
+      <c r="A3" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="29"/>
-      <c r="C3" s="29"/>
-      <c r="D3" s="29"/>
+      <c r="B3" s="30"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="30"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="7" t="s">
@@ -2116,7 +2120,7 @@
       <c r="C5" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="D5" s="30" t="s">
+      <c r="D5" s="31" t="s">
         <v>121</v>
       </c>
     </row>
@@ -2130,7 +2134,7 @@
       <c r="C6" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="D6" s="31"/>
+      <c r="D6" s="32"/>
     </row>
     <row r="7" spans="1:8" ht="103.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="8" t="s">
@@ -2142,15 +2146,15 @@
       <c r="C7" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="D7" s="32"/>
+      <c r="D7" s="33"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" s="29" t="s">
+      <c r="A8" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="B8" s="29"/>
-      <c r="C8" s="29"/>
-      <c r="D8" s="29"/>
+      <c r="B8" s="30"/>
+      <c r="C8" s="30"/>
+      <c r="D8" s="30"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="7" t="s">
@@ -2221,28 +2225,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="28" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2" s="28" t="s">
+      <c r="A2" s="29" t="s">
         <v>201</v>
       </c>
-      <c r="B2" s="28"/>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
+      <c r="B2" s="29"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3" s="29" t="s">
+      <c r="A3" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="29"/>
-      <c r="C3" s="29"/>
-      <c r="D3" s="29"/>
+      <c r="B3" s="30"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="30"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="7" t="s">
@@ -2268,7 +2272,7 @@
       <c r="C5" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="D5" s="30" t="s">
+      <c r="D5" s="31" t="s">
         <v>121</v>
       </c>
     </row>
@@ -2282,7 +2286,7 @@
       <c r="C6" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="D6" s="31"/>
+      <c r="D6" s="32"/>
     </row>
     <row r="7" spans="1:8" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="8" t="s">
@@ -2294,7 +2298,7 @@
       <c r="C7" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="D7" s="32"/>
+      <c r="D7" s="33"/>
     </row>
     <row r="8" spans="1:8" ht="71.25" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
@@ -2309,12 +2313,12 @@
       <c r="D8" s="6"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9" s="29" t="s">
+      <c r="A9" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="B9" s="29"/>
-      <c r="C9" s="29"/>
-      <c r="D9" s="29"/>
+      <c r="B9" s="30"/>
+      <c r="C9" s="30"/>
+      <c r="D9" s="30"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="7" t="s">
@@ -2344,10 +2348,10 @@
       <c r="D11" s="3"/>
     </row>
     <row r="12" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="34" t="s">
+      <c r="A12" s="35" t="s">
         <v>202</v>
       </c>
-      <c r="B12" s="34" t="s">
+      <c r="B12" s="35" t="s">
         <v>54</v>
       </c>
       <c r="C12" s="5" t="s">
@@ -2356,8 +2360,8 @@
       <c r="D12" s="5"/>
     </row>
     <row r="13" spans="1:8" ht="57" x14ac:dyDescent="0.2">
-      <c r="A13" s="34"/>
-      <c r="B13" s="34"/>
+      <c r="A13" s="35"/>
+      <c r="B13" s="35"/>
       <c r="C13" s="5" t="s">
         <v>60</v>
       </c>
@@ -2366,8 +2370,8 @@
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A14" s="34"/>
-      <c r="B14" s="34"/>
+      <c r="A14" s="35"/>
+      <c r="B14" s="35"/>
       <c r="C14" s="5" t="s">
         <v>173</v>
       </c>
@@ -2376,8 +2380,8 @@
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A15" s="34"/>
-      <c r="B15" s="34"/>
+      <c r="A15" s="35"/>
+      <c r="B15" s="35"/>
       <c r="C15" s="20" t="s">
         <v>62</v>
       </c>
@@ -2386,30 +2390,30 @@
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A16" s="34"/>
-      <c r="B16" s="34"/>
-      <c r="C16" s="35" t="s">
+      <c r="A16" s="35"/>
+      <c r="B16" s="35"/>
+      <c r="C16" s="36" t="s">
         <v>65</v>
       </c>
-      <c r="D16" s="33" t="s">
+      <c r="D16" s="34" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" s="34"/>
-      <c r="B17" s="34"/>
-      <c r="C17" s="35"/>
-      <c r="D17" s="33"/>
+      <c r="A17" s="35"/>
+      <c r="B17" s="35"/>
+      <c r="C17" s="36"/>
+      <c r="D17" s="34"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" s="34"/>
-      <c r="B18" s="34"/>
-      <c r="C18" s="35"/>
-      <c r="D18" s="33"/>
+      <c r="A18" s="35"/>
+      <c r="B18" s="35"/>
+      <c r="C18" s="36"/>
+      <c r="D18" s="34"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19" s="34"/>
-      <c r="B19" s="34"/>
+      <c r="A19" s="35"/>
+      <c r="B19" s="35"/>
       <c r="C19" s="20" t="s">
         <v>67</v>
       </c>
@@ -2448,28 +2452,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="28" t="s">
         <v>56</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="28" t="s">
+      <c r="A2" s="29" t="s">
         <v>133</v>
       </c>
-      <c r="B2" s="28"/>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
+      <c r="B2" s="29"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="29" t="s">
+      <c r="A3" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="29"/>
-      <c r="C3" s="29"/>
-      <c r="D3" s="29"/>
+      <c r="B3" s="30"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="30"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="7" t="s">
@@ -2498,12 +2502,12 @@
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" s="29" t="s">
+      <c r="A6" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="29"/>
-      <c r="C6" s="29"/>
-      <c r="D6" s="29"/>
+      <c r="B6" s="30"/>
+      <c r="C6" s="30"/>
+      <c r="D6" s="30"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="7" t="s">
@@ -2572,30 +2576,30 @@
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" s="35" t="s">
+      <c r="A12" s="36" t="s">
         <v>65</v>
       </c>
-      <c r="B12" s="35" t="s">
+      <c r="B12" s="36" t="s">
         <v>63</v>
       </c>
-      <c r="C12" s="36" t="s">
+      <c r="C12" s="37" t="s">
         <v>161</v>
       </c>
-      <c r="D12" s="35" t="s">
+      <c r="D12" s="36" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="35"/>
-      <c r="B13" s="35"/>
-      <c r="C13" s="37"/>
-      <c r="D13" s="35"/>
+      <c r="A13" s="36"/>
+      <c r="B13" s="36"/>
+      <c r="C13" s="38"/>
+      <c r="D13" s="36"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" s="35"/>
-      <c r="B14" s="35"/>
-      <c r="C14" s="38"/>
-      <c r="D14" s="35"/>
+      <c r="A14" s="36"/>
+      <c r="B14" s="36"/>
+      <c r="C14" s="39"/>
+      <c r="D14" s="36"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="10" t="s">
@@ -2644,28 +2648,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="28" t="s">
         <v>75</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="28" t="s">
+      <c r="A2" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="28"/>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
+      <c r="B2" s="29"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="29" t="s">
+      <c r="A3" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="29"/>
-      <c r="C3" s="29"/>
-      <c r="D3" s="29"/>
+      <c r="B3" s="30"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="30"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="7" t="s">
@@ -2728,12 +2732,12 @@
       <c r="D8" s="6"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="29" t="s">
+      <c r="A9" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="B9" s="29"/>
-      <c r="C9" s="29"/>
-      <c r="D9" s="29"/>
+      <c r="B9" s="30"/>
+      <c r="C9" s="30"/>
+      <c r="D9" s="30"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="7" t="s">
@@ -2789,28 +2793,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="28" t="s">
         <v>80</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="28" t="s">
+      <c r="A2" s="29" t="s">
         <v>134</v>
       </c>
-      <c r="B2" s="28"/>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
+      <c r="B2" s="29"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="29" t="s">
+      <c r="A3" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="29"/>
-      <c r="C3" s="29"/>
-      <c r="D3" s="29"/>
+      <c r="B3" s="30"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="30"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="7" t="s">
@@ -2899,12 +2903,12 @@
       <c r="D10" s="6"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" s="29" t="s">
+      <c r="A11" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="B11" s="29"/>
-      <c r="C11" s="29"/>
-      <c r="D11" s="29"/>
+      <c r="B11" s="30"/>
+      <c r="C11" s="30"/>
+      <c r="D11" s="30"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="7" t="s">
@@ -2959,28 +2963,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="28" t="s">
         <v>83</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="28" t="s">
+      <c r="A2" s="29" t="s">
         <v>135</v>
       </c>
-      <c r="B2" s="28"/>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
+      <c r="B2" s="29"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="29" t="s">
+      <c r="A3" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="29"/>
-      <c r="C3" s="29"/>
-      <c r="D3" s="29"/>
+      <c r="B3" s="30"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="30"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="7" t="s">
@@ -3019,12 +3023,12 @@
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="29" t="s">
+      <c r="A7" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="B7" s="29"/>
-      <c r="C7" s="29"/>
-      <c r="D7" s="29"/>
+      <c r="B7" s="30"/>
+      <c r="C7" s="30"/>
+      <c r="D7" s="30"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="7" t="s">
@@ -3118,28 +3122,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="28" t="s">
         <v>149</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="28" t="s">
+      <c r="A2" s="29" t="s">
         <v>136</v>
       </c>
-      <c r="B2" s="28"/>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
+      <c r="B2" s="29"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="29" t="s">
+      <c r="A3" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="29"/>
-      <c r="C3" s="29"/>
-      <c r="D3" s="29"/>
+      <c r="B3" s="30"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="30"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="7" t="s">
@@ -3214,12 +3218,12 @@
       <c r="D9" s="6"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="29" t="s">
+      <c r="A10" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="B10" s="29"/>
-      <c r="C10" s="29"/>
-      <c r="D10" s="29"/>
+      <c r="B10" s="30"/>
+      <c r="C10" s="30"/>
+      <c r="D10" s="30"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="7" t="s">
@@ -3275,28 +3279,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="22" t="s">
+      <c r="A2" s="23" t="s">
         <v>111</v>
       </c>
-      <c r="B2" s="22"/>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
+      <c r="B2" s="23"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="23" t="s">
+      <c r="A3" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="23"/>
-      <c r="C3" s="23"/>
-      <c r="D3" s="23"/>
+      <c r="B3" s="24"/>
+      <c r="C3" s="24"/>
+      <c r="D3" s="24"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
@@ -3369,12 +3373,12 @@
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="23" t="s">
+      <c r="A9" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="B9" s="23"/>
-      <c r="C9" s="23"/>
-      <c r="D9" s="23"/>
+      <c r="B9" s="24"/>
+      <c r="C9" s="24"/>
+      <c r="D9" s="24"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
@@ -3445,28 +3449,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="28" t="s">
         <v>100</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="28" t="s">
+      <c r="A2" s="29" t="s">
         <v>159</v>
       </c>
-      <c r="B2" s="28"/>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
+      <c r="B2" s="29"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="29" t="s">
+      <c r="A3" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="29"/>
-      <c r="C3" s="29"/>
-      <c r="D3" s="29"/>
+      <c r="B3" s="30"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="30"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="7" t="s">
@@ -3493,12 +3497,12 @@
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" s="29" t="s">
+      <c r="A6" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="29"/>
-      <c r="C6" s="29"/>
-      <c r="D6" s="29"/>
+      <c r="B6" s="30"/>
+      <c r="C6" s="30"/>
+      <c r="D6" s="30"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="7" t="s">
@@ -3515,10 +3519,10 @@
       </c>
     </row>
     <row r="8" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="39" t="s">
+      <c r="A8" s="40" t="s">
         <v>151</v>
       </c>
-      <c r="B8" s="39" t="s">
+      <c r="B8" s="40" t="s">
         <v>152</v>
       </c>
       <c r="C8" s="15" t="s">
@@ -3529,8 +3533,8 @@
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="40"/>
-      <c r="B9" s="40"/>
+      <c r="A9" s="41"/>
+      <c r="B9" s="41"/>
       <c r="C9" s="15" t="s">
         <v>156</v>
       </c>
@@ -3539,8 +3543,8 @@
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="40"/>
-      <c r="B10" s="40"/>
+      <c r="A10" s="41"/>
+      <c r="B10" s="41"/>
       <c r="C10" s="15" t="s">
         <v>155</v>
       </c>
@@ -3549,8 +3553,8 @@
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" s="40"/>
-      <c r="B11" s="40"/>
+      <c r="A11" s="41"/>
+      <c r="B11" s="41"/>
       <c r="C11" s="15" t="s">
         <v>153</v>
       </c>
@@ -3559,8 +3563,8 @@
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" s="40"/>
-      <c r="B12" s="40"/>
+      <c r="A12" s="41"/>
+      <c r="B12" s="41"/>
       <c r="C12" s="15" t="s">
         <v>110</v>
       </c>
@@ -3569,8 +3573,8 @@
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13" s="41"/>
-      <c r="B13" s="41"/>
+      <c r="A13" s="42"/>
+      <c r="B13" s="42"/>
       <c r="C13" s="11" t="s">
         <v>157</v>
       </c>
@@ -3606,28 +3610,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="28" t="s">
         <v>84</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="28" t="s">
+      <c r="A2" s="29" t="s">
         <v>138</v>
       </c>
-      <c r="B2" s="28"/>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
+      <c r="B2" s="29"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="29" t="s">
+      <c r="A3" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="29"/>
-      <c r="C3" s="29"/>
-      <c r="D3" s="29"/>
+      <c r="B3" s="30"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="30"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="7" t="s">
@@ -3680,12 +3684,12 @@
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="29" t="s">
+      <c r="A8" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="B8" s="29"/>
-      <c r="C8" s="29"/>
-      <c r="D8" s="29"/>
+      <c r="B8" s="30"/>
+      <c r="C8" s="30"/>
+      <c r="D8" s="30"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="7" t="s">
@@ -3740,28 +3744,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="28" t="s">
         <v>89</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="28" t="s">
+      <c r="A2" s="29" t="s">
         <v>141</v>
       </c>
-      <c r="B2" s="28"/>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
+      <c r="B2" s="29"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="29" t="s">
+      <c r="A3" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="29"/>
-      <c r="C3" s="29"/>
-      <c r="D3" s="29"/>
+      <c r="B3" s="30"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="30"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="7" t="s">
@@ -3800,12 +3804,12 @@
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="29" t="s">
+      <c r="A7" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="B7" s="29"/>
-      <c r="C7" s="29"/>
-      <c r="D7" s="29"/>
+      <c r="B7" s="30"/>
+      <c r="C7" s="30"/>
+      <c r="D7" s="30"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="7" t="s">
@@ -3860,28 +3864,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="28" t="s">
         <v>143</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="28" t="s">
+      <c r="A2" s="29" t="s">
         <v>144</v>
       </c>
-      <c r="B2" s="28"/>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
+      <c r="B2" s="29"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="29" t="s">
+      <c r="A3" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="29"/>
-      <c r="C3" s="29"/>
-      <c r="D3" s="29"/>
+      <c r="B3" s="30"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="30"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="7" t="s">
@@ -3908,12 +3912,12 @@
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" s="29" t="s">
+      <c r="A6" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="29"/>
-      <c r="C6" s="29"/>
-      <c r="D6" s="29"/>
+      <c r="B6" s="30"/>
+      <c r="C6" s="30"/>
+      <c r="D6" s="30"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="7" t="s">
@@ -3969,28 +3973,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="28" t="s">
         <v>142</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="28" t="s">
+      <c r="A2" s="29" t="s">
         <v>145</v>
       </c>
-      <c r="B2" s="28"/>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
+      <c r="B2" s="29"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="29" t="s">
+      <c r="A3" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="29"/>
-      <c r="C3" s="29"/>
-      <c r="D3" s="29"/>
+      <c r="B3" s="30"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="30"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="7" t="s">
@@ -4029,12 +4033,12 @@
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="29" t="s">
+      <c r="A7" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="B7" s="29"/>
-      <c r="C7" s="29"/>
-      <c r="D7" s="29"/>
+      <c r="B7" s="30"/>
+      <c r="C7" s="30"/>
+      <c r="D7" s="30"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="7" t="s">
@@ -4089,28 +4093,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="28" t="s">
         <v>147</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="28" t="s">
+      <c r="A2" s="29" t="s">
         <v>148</v>
       </c>
-      <c r="B2" s="28"/>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
+      <c r="B2" s="29"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="29" t="s">
+      <c r="A3" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="29"/>
-      <c r="C3" s="29"/>
-      <c r="D3" s="29"/>
+      <c r="B3" s="30"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="30"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="7" t="s">
@@ -4149,12 +4153,12 @@
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="29" t="s">
+      <c r="A7" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="B7" s="29"/>
-      <c r="C7" s="29"/>
-      <c r="D7" s="29"/>
+      <c r="B7" s="30"/>
+      <c r="C7" s="30"/>
+      <c r="D7" s="30"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="7" t="s">
@@ -4209,28 +4213,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="28" t="s">
         <v>139</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="28" t="s">
+      <c r="A2" s="29" t="s">
         <v>146</v>
       </c>
-      <c r="B2" s="28"/>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
+      <c r="B2" s="29"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="29" t="s">
+      <c r="A3" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="29"/>
-      <c r="C3" s="29"/>
-      <c r="D3" s="29"/>
+      <c r="B3" s="30"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="30"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="7" t="s">
@@ -4257,12 +4261,12 @@
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" s="29" t="s">
+      <c r="A6" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="29"/>
-      <c r="C6" s="29"/>
-      <c r="D6" s="29"/>
+      <c r="B6" s="30"/>
+      <c r="C6" s="30"/>
+      <c r="D6" s="30"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="7" t="s">
@@ -4318,28 +4322,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="28" t="s">
         <v>98</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="28" t="s">
+      <c r="A2" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="28"/>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
+      <c r="B2" s="29"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="29" t="s">
+      <c r="A3" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="29"/>
-      <c r="C3" s="29"/>
-      <c r="D3" s="29"/>
+      <c r="B3" s="30"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="30"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="7" t="s">
@@ -4366,12 +4370,12 @@
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" s="29" t="s">
+      <c r="A6" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="29"/>
-      <c r="C6" s="29"/>
-      <c r="D6" s="29"/>
+      <c r="B6" s="30"/>
+      <c r="C6" s="30"/>
+      <c r="D6" s="30"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="7" t="s">
@@ -4469,28 +4473,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="28" t="s">
         <v>99</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="28" t="s">
+      <c r="A2" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="28"/>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
+      <c r="B2" s="29"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="29" t="s">
+      <c r="A3" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="29"/>
-      <c r="C3" s="29"/>
-      <c r="D3" s="29"/>
+      <c r="B3" s="30"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="30"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="7" t="s">
@@ -4583,12 +4587,12 @@
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" s="29" t="s">
+      <c r="A11" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="B11" s="29"/>
-      <c r="C11" s="29"/>
-      <c r="D11" s="29"/>
+      <c r="B11" s="30"/>
+      <c r="C11" s="30"/>
+      <c r="D11" s="30"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="7" t="s">
@@ -4645,28 +4649,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="22" t="s">
         <v>217</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="22" t="s">
+      <c r="A2" s="23" t="s">
         <v>203</v>
       </c>
-      <c r="B2" s="22"/>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
+      <c r="B2" s="23"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="23" t="s">
+      <c r="A3" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="23"/>
-      <c r="C3" s="23"/>
-      <c r="D3" s="23"/>
+      <c r="B3" s="24"/>
+      <c r="C3" s="24"/>
+      <c r="D3" s="24"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
@@ -4693,12 +4697,12 @@
       <c r="D5" s="3"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" s="23" t="s">
+      <c r="A6" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="23"/>
-      <c r="C6" s="23"/>
-      <c r="D6" s="23"/>
+      <c r="B6" s="24"/>
+      <c r="C6" s="24"/>
+      <c r="D6" s="24"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
@@ -4813,28 +4817,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="22" t="s">
         <v>218</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="22" t="s">
+      <c r="A2" s="23" t="s">
         <v>213</v>
       </c>
-      <c r="B2" s="22"/>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
+      <c r="B2" s="23"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="23" t="s">
+      <c r="A3" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="23"/>
-      <c r="C3" s="23"/>
-      <c r="D3" s="23"/>
+      <c r="B3" s="24"/>
+      <c r="C3" s="24"/>
+      <c r="D3" s="24"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
@@ -4865,7 +4869,7 @@
         <v>205</v>
       </c>
       <c r="B6" s="3"/>
-      <c r="C6" s="24" t="s">
+      <c r="C6" s="25" t="s">
         <v>215</v>
       </c>
       <c r="D6" s="3"/>
@@ -4875,7 +4879,7 @@
         <v>206</v>
       </c>
       <c r="B7" s="3"/>
-      <c r="C7" s="24"/>
+      <c r="C7" s="25"/>
       <c r="D7" s="3"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
@@ -4883,7 +4887,7 @@
         <v>207</v>
       </c>
       <c r="B8" s="3"/>
-      <c r="C8" s="24"/>
+      <c r="C8" s="25"/>
       <c r="D8" s="3"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
@@ -4891,16 +4895,16 @@
         <v>208</v>
       </c>
       <c r="B9" s="3"/>
-      <c r="C9" s="24"/>
+      <c r="C9" s="25"/>
       <c r="D9" s="3"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="23" t="s">
+      <c r="A10" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="B10" s="23"/>
-      <c r="C10" s="23"/>
-      <c r="D10" s="23"/>
+      <c r="B10" s="24"/>
+      <c r="C10" s="24"/>
+      <c r="D10" s="24"/>
     </row>
     <row r="11" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
@@ -4958,28 +4962,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="22" t="s">
+      <c r="A2" s="23" t="s">
         <v>112</v>
       </c>
-      <c r="B2" s="22"/>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
+      <c r="B2" s="23"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="23" t="s">
+      <c r="A3" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="23"/>
-      <c r="C3" s="23"/>
-      <c r="D3" s="23"/>
+      <c r="B3" s="24"/>
+      <c r="C3" s="24"/>
+      <c r="D3" s="24"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
@@ -5052,12 +5056,12 @@
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="23" t="s">
+      <c r="A9" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="B9" s="23"/>
-      <c r="C9" s="23"/>
-      <c r="D9" s="23"/>
+      <c r="B9" s="24"/>
+      <c r="C9" s="24"/>
+      <c r="D9" s="24"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
@@ -5128,28 +5132,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="22" t="s">
         <v>113</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="22" t="s">
+      <c r="A2" s="23" t="s">
         <v>115</v>
       </c>
-      <c r="B2" s="22"/>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
+      <c r="B2" s="23"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
     </row>
     <row r="3" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="23" t="s">
+      <c r="A3" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="23"/>
-      <c r="C3" s="23"/>
-      <c r="D3" s="23"/>
+      <c r="B3" s="24"/>
+      <c r="C3" s="24"/>
+      <c r="D3" s="24"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
@@ -5172,12 +5176,12 @@
       <c r="D5" s="6"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" s="23" t="s">
+      <c r="A6" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="23"/>
-      <c r="C6" s="23"/>
-      <c r="D6" s="23"/>
+      <c r="B6" s="24"/>
+      <c r="C6" s="24"/>
+      <c r="D6" s="24"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
@@ -5235,28 +5239,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="22" t="s">
         <v>190</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="22" t="s">
+      <c r="A2" s="23" t="s">
         <v>191</v>
       </c>
-      <c r="B2" s="22"/>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
+      <c r="B2" s="23"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
     </row>
     <row r="3" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="23" t="s">
+      <c r="A3" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="23"/>
-      <c r="C3" s="23"/>
-      <c r="D3" s="23"/>
+      <c r="B3" s="24"/>
+      <c r="C3" s="24"/>
+      <c r="D3" s="24"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
@@ -5285,12 +5289,12 @@
       <c r="D5" s="6"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" s="23" t="s">
+      <c r="A6" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="23"/>
-      <c r="C6" s="23"/>
-      <c r="D6" s="23"/>
+      <c r="B6" s="24"/>
+      <c r="C6" s="24"/>
+      <c r="D6" s="24"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
@@ -5361,28 +5365,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="22" t="s">
+      <c r="A2" s="23" t="s">
         <v>197</v>
       </c>
-      <c r="B2" s="22"/>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
+      <c r="B2" s="23"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="23" t="s">
+      <c r="A3" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="23"/>
-      <c r="C3" s="23"/>
-      <c r="D3" s="23"/>
+      <c r="B3" s="24"/>
+      <c r="C3" s="24"/>
+      <c r="D3" s="24"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
@@ -5425,12 +5429,12 @@
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="23" t="s">
+      <c r="A7" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="B7" s="23"/>
-      <c r="C7" s="23"/>
-      <c r="D7" s="23"/>
+      <c r="B7" s="24"/>
+      <c r="C7" s="24"/>
+      <c r="D7" s="24"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
@@ -5501,28 +5505,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="22" t="s">
+      <c r="A2" s="23" t="s">
         <v>118</v>
       </c>
-      <c r="B2" s="22"/>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
+      <c r="B2" s="23"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="23" t="s">
+      <c r="A3" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="23"/>
-      <c r="C3" s="23"/>
-      <c r="D3" s="23"/>
+      <c r="B3" s="24"/>
+      <c r="C3" s="24"/>
+      <c r="D3" s="24"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
@@ -5577,12 +5581,12 @@
       <c r="D7" s="6"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="23" t="s">
+      <c r="A8" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="B8" s="23"/>
-      <c r="C8" s="23"/>
-      <c r="D8" s="23"/>
+      <c r="B8" s="24"/>
+      <c r="C8" s="24"/>
+      <c r="D8" s="24"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
